--- a/data_month/zb/财政/国家财政预算支出.xlsx
+++ b/data_month/zb/财政/国家财政预算支出.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C231"/>
+  <dimension ref="A1:D231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,2995 +444,3690 @@
           <t>国家财政支出(不含债务还本)_累计增长</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>国家财政支出(不含债务还本)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10533.67</v>
+        <v>1497.74</v>
       </c>
       <c r="C2" t="n">
-        <v>20.3</v>
+        <v>38.2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1497.74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11909.25</v>
+        <v>2376.43</v>
       </c>
       <c r="C3" t="n">
-        <v>20.6</v>
+        <v>29.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>878.6899999999998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1497.74</v>
+        <v>3463.78</v>
       </c>
       <c r="C4" t="n">
-        <v>38.2</v>
+        <v>31.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1087.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2376.43</v>
+        <v>4485.93</v>
       </c>
       <c r="C5" t="n">
-        <v>29.1</v>
+        <v>27.1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1022.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3463.78</v>
+        <v>5838.34</v>
       </c>
       <c r="C6" t="n">
-        <v>31.2</v>
+        <v>25.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1352.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4485.93</v>
+        <v>6881.679</v>
       </c>
       <c r="C7" t="n">
-        <v>27.1</v>
+        <v>22.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1043.339</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5838.34</v>
+        <v>8174.5</v>
       </c>
       <c r="C8" t="n">
-        <v>25.6</v>
+        <v>26.8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1292.821</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6881.679</v>
+        <v>9452.809999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>22.8</v>
+        <v>22.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1278.309999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8174.5</v>
+        <v>10533.67</v>
       </c>
       <c r="C10" t="n">
-        <v>26.8</v>
+        <v>20.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1080.860000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9452.809999999999</v>
+        <v>11909.25</v>
       </c>
       <c r="C11" t="n">
-        <v>22.4</v>
+        <v>20.6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1375.58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12703.08</v>
+        <v>1778.12</v>
       </c>
       <c r="C12" t="n">
-        <v>20.6</v>
+        <v>18.7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1778.12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14504.49</v>
+        <v>2832.99</v>
       </c>
       <c r="C13" t="n">
-        <v>21.8</v>
+        <v>19.2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1054.87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1778.12</v>
+        <v>4014.29</v>
       </c>
       <c r="C14" t="n">
-        <v>18.7</v>
+        <v>15.9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1181.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2832.99</v>
+        <v>5324.23</v>
       </c>
       <c r="C15" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1309.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4014.29</v>
+        <v>7044.65</v>
       </c>
       <c r="C16" t="n">
-        <v>15.9</v>
+        <v>20.7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1720.42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5324.23</v>
+        <v>8408.459999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>18.7</v>
+        <v>22.1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1363.809999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7044.65</v>
+        <v>9875.690000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1467.230000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8408.459999999999</v>
+        <v>11479.63</v>
       </c>
       <c r="C19" t="n">
-        <v>22.1</v>
+        <v>21.4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1603.939999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9875.690000000001</v>
+        <v>12703.08</v>
       </c>
       <c r="C20" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1223.450000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11479.63</v>
+        <v>14504.49</v>
       </c>
       <c r="C21" t="n">
-        <v>21.4</v>
+        <v>21.8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1801.41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15011.42</v>
+        <v>2164.78</v>
       </c>
       <c r="C22" t="n">
-        <v>18.2</v>
+        <v>21.7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2164.78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16911.44</v>
+        <v>3511.35</v>
       </c>
       <c r="C23" t="n">
-        <v>16.6</v>
+        <v>23.9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1346.57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2164.78</v>
+        <v>4099.4</v>
       </c>
       <c r="C24" t="n">
-        <v>21.7</v>
+        <v>24.5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>588.0499999999997</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3511.35</v>
+        <v>6334.39</v>
       </c>
       <c r="C25" t="n">
-        <v>23.9</v>
+        <v>19</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2234.990000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4099.4</v>
+        <v>8297.360000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>24.5</v>
+        <v>17.8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1962.97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6334.39</v>
+        <v>9979.58</v>
       </c>
       <c r="C27" t="n">
-        <v>19</v>
+        <v>18.7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1682.219999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8297.360000000001</v>
+        <v>11587.04</v>
       </c>
       <c r="C28" t="n">
-        <v>17.8</v>
+        <v>17.3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1607.460000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9979.58</v>
+        <v>13497.56</v>
       </c>
       <c r="C29" t="n">
-        <v>18.7</v>
+        <v>17.6</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1910.519999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11587.04</v>
+        <v>15011.42</v>
       </c>
       <c r="C30" t="n">
-        <v>17.3</v>
+        <v>18.2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1513.860000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13497.56</v>
+        <v>16911.44</v>
       </c>
       <c r="C31" t="n">
-        <v>17.6</v>
+        <v>16.6</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1900.019999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16947.9</v>
+        <v>2392.35</v>
       </c>
       <c r="C32" t="n">
-        <v>12.9</v>
+        <v>10.5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2392.35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18932.01</v>
+        <v>3892.39</v>
       </c>
       <c r="C33" t="n">
-        <v>11.9</v>
+        <v>10.9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1500.04</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2392.35</v>
+        <v>5626.89</v>
       </c>
       <c r="C34" t="n">
-        <v>10.5</v>
+        <v>12.6</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1734.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3892.39</v>
+        <v>7315.6</v>
       </c>
       <c r="C35" t="n">
-        <v>10.9</v>
+        <v>15.5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1688.71</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5626.89</v>
+        <v>9665.85</v>
       </c>
       <c r="C36" t="n">
-        <v>12.6</v>
+        <v>16.5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2350.25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7315.6</v>
+        <v>11481.44</v>
       </c>
       <c r="C37" t="n">
-        <v>15.5</v>
+        <v>15</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1815.59</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9665.85</v>
+        <v>13185.12</v>
       </c>
       <c r="C38" t="n">
-        <v>16.5</v>
+        <v>13.8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1703.68</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>11481.44</v>
+        <v>15264.89</v>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>13.1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2079.769999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13185.12</v>
+        <v>16947.9</v>
       </c>
       <c r="C40" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1683.010000000002</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15264.89</v>
+        <v>18932.01</v>
       </c>
       <c r="C41" t="n">
-        <v>13.1</v>
+        <v>11.9</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1984.109999999997</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19061.86</v>
+        <v>2730.51</v>
       </c>
       <c r="C42" t="n">
-        <v>12.5</v>
+        <v>14.1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2730.51</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21593.68</v>
+        <v>4502</v>
       </c>
       <c r="C43" t="n">
-        <v>14.1</v>
+        <v>15.7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1771.49</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2730.51</v>
+        <v>6601.66</v>
       </c>
       <c r="C44" t="n">
-        <v>14.1</v>
+        <v>17.3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2099.66</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4502</v>
+        <v>8322.6</v>
       </c>
       <c r="C45" t="n">
-        <v>15.7</v>
+        <v>13.8</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1720.940000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6601.66</v>
+        <v>10802.85</v>
       </c>
       <c r="C46" t="n">
-        <v>17.3</v>
+        <v>11.8</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2480.25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>8322.6</v>
+        <v>12738.18</v>
       </c>
       <c r="C47" t="n">
-        <v>13.8</v>
+        <v>10.9</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1935.33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>10802.85</v>
+        <v>14714.63</v>
       </c>
       <c r="C48" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1976.449999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>12738.18</v>
+        <v>17144.57</v>
       </c>
       <c r="C49" t="n">
-        <v>10.9</v>
+        <v>12.3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2429.940000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>14714.63</v>
+        <v>19061.86</v>
       </c>
       <c r="C50" t="n">
-        <v>11.6</v>
+        <v>12.5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1917.290000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>17144.57</v>
+        <v>21593.68</v>
       </c>
       <c r="C51" t="n">
-        <v>12.3</v>
+        <v>14.1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2531.82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>22137.89</v>
+        <v>3028.4</v>
       </c>
       <c r="C52" t="n">
-        <v>16.1</v>
+        <v>10.9</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3028.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>25326.28</v>
+        <v>5209.35</v>
       </c>
       <c r="C53" t="n">
-        <v>17.3</v>
+        <v>15.7</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2180.95</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3028.4</v>
+        <v>7590.21</v>
       </c>
       <c r="C54" t="n">
-        <v>10.9</v>
+        <v>15</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2380.86</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5209.35</v>
+        <v>9585.35</v>
       </c>
       <c r="C55" t="n">
-        <v>15.7</v>
+        <v>15.2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1995.14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>7590.21</v>
+        <v>12421.38</v>
       </c>
       <c r="C56" t="n">
         <v>15</v>
       </c>
+      <c r="D56" t="n">
+        <v>2836.029999999999</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>9585.35</v>
+        <v>14660.64</v>
       </c>
       <c r="C57" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2239.26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>12421.38</v>
+        <v>17073.91</v>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2413.27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>14660.64</v>
+        <v>19949.94</v>
       </c>
       <c r="C59" t="n">
-        <v>15.1</v>
+        <v>16.4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2876.029999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>17073.91</v>
+        <v>22137.89</v>
       </c>
       <c r="C60" t="n">
-        <v>16</v>
+        <v>16.1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2187.950000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>19949.94</v>
+        <v>25326.28</v>
       </c>
       <c r="C61" t="n">
-        <v>16.4</v>
+        <v>17.3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3188.389999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>25827.51</v>
+        <v>3787.55</v>
       </c>
       <c r="C62" t="n">
-        <v>16.7</v>
+        <v>25.1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3787.55</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>29611.22</v>
+        <v>6291.65</v>
       </c>
       <c r="C63" t="n">
-        <v>16.9</v>
+        <v>20.8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2504.099999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3787.55</v>
+        <v>9020.17</v>
       </c>
       <c r="C64" t="n">
-        <v>25.1</v>
+        <v>18.8</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2728.52</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>6291.65</v>
+        <v>11186.47</v>
       </c>
       <c r="C65" t="n">
-        <v>20.8</v>
+        <v>16.7</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2166.299999999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9020.17</v>
+        <v>14601.09</v>
       </c>
       <c r="C66" t="n">
-        <v>18.8</v>
+        <v>17.5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3414.620000000001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>11186.47</v>
+        <v>17125.86</v>
       </c>
       <c r="C67" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2524.77</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>14601.09</v>
+        <v>19730.78</v>
       </c>
       <c r="C68" t="n">
-        <v>17.5</v>
+        <v>15.6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2604.919999999998</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>17125.86</v>
+        <v>23156.95</v>
       </c>
       <c r="C69" t="n">
-        <v>16.8</v>
+        <v>16.1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3426.170000000002</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>19730.78</v>
+        <v>25827.51</v>
       </c>
       <c r="C70" t="n">
-        <v>15.6</v>
+        <v>16.7</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2670.559999999998</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>23156.95</v>
+        <v>29611.22</v>
       </c>
       <c r="C71" t="n">
-        <v>16.1</v>
+        <v>16.9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3783.710000000003</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>32576.58</v>
+        <v>4414.57</v>
       </c>
       <c r="C72" t="n">
-        <v>26.1</v>
+        <v>16.6</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4414.57</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>37084.77</v>
+        <v>7288.75</v>
       </c>
       <c r="C73" t="n">
-        <v>25.2</v>
+        <v>15.8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2874.18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4414.57</v>
+        <v>10509.22</v>
       </c>
       <c r="C74" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3220.469999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7288.75</v>
+        <v>13431.42</v>
       </c>
       <c r="C75" t="n">
-        <v>15.8</v>
+        <v>20.1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2922.200000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>10509.22</v>
+        <v>17919.99</v>
       </c>
       <c r="C76" t="n">
-        <v>16.5</v>
+        <v>22.7</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4488.570000000002</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>13431.42</v>
+        <v>21156.55</v>
       </c>
       <c r="C77" t="n">
-        <v>20.1</v>
+        <v>23.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3236.559999999998</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>17919.99</v>
+        <v>24583.22</v>
       </c>
       <c r="C78" t="n">
-        <v>22.7</v>
+        <v>24.6</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3426.670000000002</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>21156.55</v>
+        <v>29016.33</v>
       </c>
       <c r="C79" t="n">
-        <v>23.5</v>
+        <v>25.3</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4433.110000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>24583.22</v>
+        <v>32576.58</v>
       </c>
       <c r="C80" t="n">
-        <v>24.6</v>
+        <v>26.1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3560.25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>29016.33</v>
+        <v>37084.77</v>
       </c>
       <c r="C81" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4508.189999999995</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>40571.31</v>
+        <v>5969.93</v>
       </c>
       <c r="C82" t="n">
-        <v>24.5</v>
+        <v>29</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5969.93</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>45825.34</v>
+        <v>9506.74</v>
       </c>
       <c r="C83" t="n">
-        <v>23.6</v>
+        <v>30.4</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3536.809999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>5969.93</v>
+        <v>13585.18</v>
       </c>
       <c r="C84" t="n">
-        <v>29</v>
+        <v>29.3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4078.440000000001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>9506.74</v>
+        <v>17609.81</v>
       </c>
       <c r="C85" t="n">
-        <v>30.4</v>
+        <v>31.1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>4024.630000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>13585.18</v>
+        <v>22882.02</v>
       </c>
       <c r="C86" t="n">
-        <v>29.3</v>
+        <v>27.7</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5272.209999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>17609.81</v>
+        <v>27443.46</v>
       </c>
       <c r="C87" t="n">
-        <v>31.1</v>
+        <v>29.7</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4561.439999999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>22882.02</v>
+        <v>31479.2</v>
       </c>
       <c r="C88" t="n">
-        <v>27.7</v>
+        <v>28.1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4035.740000000002</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>27443.46</v>
+        <v>36428.14</v>
       </c>
       <c r="C89" t="n">
-        <v>29.7</v>
+        <v>25.5</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4948.939999999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>31479.2</v>
+        <v>40571.31</v>
       </c>
       <c r="C90" t="n">
-        <v>28.1</v>
+        <v>24.5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4143.169999999998</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>36428.14</v>
+        <v>45825.34</v>
       </c>
       <c r="C91" t="n">
-        <v>25.5</v>
+        <v>23.6</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5254.029999999999</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>49886.04</v>
+        <v>7803.53</v>
       </c>
       <c r="C92" t="n">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="D92" t="n">
+        <v>7803.53</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>56235.97</v>
+        <v>12810.92</v>
       </c>
       <c r="C93" t="n">
-        <v>22.7</v>
+        <v>34.8</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5007.39</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>7803.53</v>
+        <v>17888.97</v>
       </c>
       <c r="C94" t="n">
-        <v>37</v>
+        <v>31.7</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5078.050000000001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>12810.92</v>
+        <v>22496.98</v>
       </c>
       <c r="C95" t="n">
-        <v>34.8</v>
+        <v>27.8</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4608.009999999998</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>17888.97</v>
+        <v>28902.56</v>
       </c>
       <c r="C96" t="n">
-        <v>31.7</v>
+        <v>26.3</v>
+      </c>
+      <c r="D96" t="n">
+        <v>6405.580000000002</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>22496.98</v>
+        <v>33888.23</v>
       </c>
       <c r="C97" t="n">
-        <v>27.8</v>
+        <v>23.5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4985.670000000002</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>28902.56</v>
+        <v>38625.35</v>
       </c>
       <c r="C98" t="n">
-        <v>26.3</v>
+        <v>22.7</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4737.119999999995</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>33888.23</v>
+        <v>45202.78</v>
       </c>
       <c r="C99" t="n">
-        <v>23.5</v>
+        <v>24.1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>6577.43</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>38625.35</v>
+        <v>49886.04</v>
       </c>
       <c r="C100" t="n">
-        <v>22.7</v>
+        <v>23</v>
+      </c>
+      <c r="D100" t="n">
+        <v>4683.260000000002</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>45202.78</v>
+        <v>56235.97</v>
       </c>
       <c r="C101" t="n">
-        <v>24.1</v>
+        <v>22.7</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6349.93</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>60993.26</v>
+        <v>8406.01</v>
       </c>
       <c r="C102" t="n">
-        <v>22.3</v>
+        <v>7.7</v>
+      </c>
+      <c r="D102" t="n">
+        <v>8406.01</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>71592.89999999999</v>
+        <v>14329.96</v>
       </c>
       <c r="C103" t="n">
-        <v>27.3</v>
+        <v>11.9</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5923.949999999999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>89575</v>
+        <v>19905.51</v>
       </c>
       <c r="C104" t="n">
-        <v>17.4</v>
+        <v>11.3</v>
+      </c>
+      <c r="D104" t="n">
+        <v>5575.549999999999</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>8406.01</v>
+        <v>25692.21</v>
       </c>
       <c r="C105" t="n">
-        <v>7.7</v>
+        <v>14.2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>5786.700000000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>14329.96</v>
+        <v>33811.36</v>
       </c>
       <c r="C106" t="n">
-        <v>11.9</v>
+        <v>17</v>
+      </c>
+      <c r="D106" t="n">
+        <v>8119.150000000001</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>19905.51</v>
+        <v>39622.23</v>
       </c>
       <c r="C107" t="n">
-        <v>11.3</v>
+        <v>16.9</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5810.870000000003</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>25692.21</v>
+        <v>46035.92</v>
       </c>
       <c r="C108" t="n">
-        <v>14.2</v>
+        <v>19.2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>6413.689999999995</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>33811.36</v>
+        <v>54504.96</v>
       </c>
       <c r="C109" t="n">
-        <v>17</v>
+        <v>20.6</v>
+      </c>
+      <c r="D109" t="n">
+        <v>8469.040000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>39622.23</v>
+        <v>60993.26</v>
       </c>
       <c r="C110" t="n">
-        <v>16.9</v>
+        <v>22.3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>6488.300000000003</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>46035.92</v>
+        <v>71592.89999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>19.2</v>
+        <v>27.3</v>
+      </c>
+      <c r="D111" t="n">
+        <v>10599.63999999999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>54504.96</v>
+        <v>89575</v>
       </c>
       <c r="C112" t="n">
-        <v>20.6</v>
+        <v>17.4</v>
+      </c>
+      <c r="D112" t="n">
+        <v>17982.10000000001</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>77559.60000000001</v>
+        <v>10483.57</v>
       </c>
       <c r="C113" t="n">
-        <v>27.2</v>
+        <v>24.7</v>
+      </c>
+      <c r="D113" t="n">
+        <v>10483.57</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>88955.78</v>
+        <v>18053.57</v>
       </c>
       <c r="C114" t="n">
-        <v>24.3</v>
+        <v>26</v>
+      </c>
+      <c r="D114" t="n">
+        <v>7570</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>108930</v>
+        <v>25358.02</v>
       </c>
       <c r="C115" t="n">
-        <v>21.2</v>
+        <v>27.4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>7304.450000000001</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>10483.57</v>
+        <v>33626.02</v>
       </c>
       <c r="C116" t="n">
-        <v>24.7</v>
+        <v>30.9</v>
+      </c>
+      <c r="D116" t="n">
+        <v>8267.999999999996</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>18053.57</v>
+        <v>44435.14</v>
       </c>
       <c r="C117" t="n">
-        <v>26</v>
+        <v>31.4</v>
+      </c>
+      <c r="D117" t="n">
+        <v>10809.12</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>25358.02</v>
+        <v>51385.06</v>
       </c>
       <c r="C118" t="n">
-        <v>27.4</v>
+        <v>29.7</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6949.919999999998</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>33626.02</v>
+        <v>59462.02</v>
       </c>
       <c r="C119" t="n">
-        <v>30.9</v>
+        <v>29.2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>8076.959999999999</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>44435.14</v>
+        <v>69480.57000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>31.4</v>
+        <v>27.5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>10018.55000000001</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>51385.06</v>
+        <v>77559.60000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>29.7</v>
+        <v>27.2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>8079.029999999999</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>59462.02</v>
+        <v>88955.78</v>
       </c>
       <c r="C122" t="n">
-        <v>29.2</v>
+        <v>24.3</v>
+      </c>
+      <c r="D122" t="n">
+        <v>11396.17999999999</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>69480.57000000001</v>
+        <v>108930</v>
       </c>
       <c r="C123" t="n">
-        <v>27.5</v>
+        <v>21.2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>19974.22</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>92735.94</v>
+        <v>13924.14</v>
       </c>
       <c r="C124" t="n">
-        <v>19.6</v>
+        <v>32.8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>13924.14</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>104895.62</v>
+        <v>24118.05</v>
       </c>
       <c r="C125" t="n">
-        <v>17.9</v>
+        <v>33.6</v>
+      </c>
+      <c r="D125" t="n">
+        <v>10193.91</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>125712</v>
+        <v>32003.83</v>
       </c>
       <c r="C126" t="n">
-        <v>15.1</v>
+        <v>26.2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7885.780000000002</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>13924.14</v>
+        <v>41168.8</v>
       </c>
       <c r="C127" t="n">
-        <v>32.8</v>
+        <v>22.4</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9164.970000000001</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>24118.05</v>
+        <v>53893.01</v>
       </c>
       <c r="C128" t="n">
-        <v>33.6</v>
+        <v>21.3</v>
+      </c>
+      <c r="D128" t="n">
+        <v>12724.21</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>32003.83</v>
+        <v>63420.67</v>
       </c>
       <c r="C129" t="n">
-        <v>26.2</v>
+        <v>23.4</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9527.659999999996</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>41168.8</v>
+        <v>72440.28999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>22.4</v>
+        <v>21.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9019.619999999995</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>53893.01</v>
+        <v>84119.31</v>
       </c>
       <c r="C131" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>11679.02</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>63420.67</v>
+        <v>92735.94</v>
       </c>
       <c r="C132" t="n">
-        <v>23.4</v>
+        <v>19.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>8616.630000000005</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>72440.28999999999</v>
+        <v>104895.62</v>
       </c>
       <c r="C133" t="n">
-        <v>21.8</v>
+        <v>17.9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>12159.67999999999</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>84119.31</v>
+        <v>125712</v>
       </c>
       <c r="C134" t="n">
-        <v>21.1</v>
+        <v>15.1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>20816.38</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>102039.68</v>
+        <v>16104.88</v>
       </c>
       <c r="C135" t="n">
-        <v>10</v>
+        <v>15.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>16104.88</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>114697.21</v>
+        <v>27036.74</v>
       </c>
       <c r="C136" t="n">
-        <v>9.300000000000001</v>
+        <v>12.1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>10931.86</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>139744</v>
+        <v>36344.69</v>
       </c>
       <c r="C137" t="n">
-        <v>10.9</v>
+        <v>13.6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>9307.950000000001</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>16104.88</v>
+        <v>46610.3</v>
       </c>
       <c r="C138" t="n">
-        <v>15.7</v>
+        <v>13.2</v>
+      </c>
+      <c r="D138" t="n">
+        <v>10265.61</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>27036.74</v>
+        <v>59713.99</v>
       </c>
       <c r="C139" t="n">
-        <v>12.1</v>
+        <v>10.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>13103.69</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>36344.69</v>
+        <v>69068.5</v>
       </c>
       <c r="C140" t="n">
-        <v>13.6</v>
+        <v>8.9</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9354.510000000002</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>46610.3</v>
+        <v>78676.11</v>
       </c>
       <c r="C141" t="n">
-        <v>13.2</v>
+        <v>8.6</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9607.610000000001</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>59713.99</v>
+        <v>91532.33</v>
       </c>
       <c r="C142" t="n">
-        <v>10.8</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D142" t="n">
+        <v>12856.22</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>69068.5</v>
+        <v>102039.68</v>
       </c>
       <c r="C143" t="n">
-        <v>8.9</v>
+        <v>10</v>
+      </c>
+      <c r="D143" t="n">
+        <v>10507.34999999999</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>78676.11</v>
+        <v>114697.21</v>
       </c>
       <c r="C144" t="n">
-        <v>8.6</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D144" t="n">
+        <v>12657.53000000001</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>91532.33</v>
+        <v>139744</v>
       </c>
       <c r="C145" t="n">
-        <v>8.800000000000001</v>
+        <v>10.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>25046.78999999999</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>113549.29</v>
+        <v>17066.7</v>
       </c>
       <c r="C146" t="n">
-        <v>11.3</v>
+        <v>6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>17066.7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>126307.87</v>
+        <v>30432.47</v>
       </c>
       <c r="C147" t="n">
-        <v>10.1</v>
+        <v>12.6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>13365.77</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>151662</v>
+        <v>39842.28</v>
       </c>
       <c r="C148" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>9409.809999999998</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>17066.7</v>
+        <v>52632.12</v>
       </c>
       <c r="C149" t="n">
-        <v>6</v>
+        <v>12.9</v>
+      </c>
+      <c r="D149" t="n">
+        <v>12789.84</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>30432.47</v>
+        <v>69154.10000000001</v>
       </c>
       <c r="C150" t="n">
-        <v>12.6</v>
+        <v>15.8</v>
+      </c>
+      <c r="D150" t="n">
+        <v>16521.98</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>39842.28</v>
+        <v>79410.28999999999</v>
       </c>
       <c r="C151" t="n">
-        <v>9.6</v>
+        <v>15</v>
+      </c>
+      <c r="D151" t="n">
+        <v>10256.18999999999</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>52632.12</v>
+        <v>89613.98</v>
       </c>
       <c r="C152" t="n">
-        <v>12.9</v>
+        <v>13.9</v>
+      </c>
+      <c r="D152" t="n">
+        <v>10203.69</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>69154.10000000001</v>
+        <v>103639.51</v>
       </c>
       <c r="C153" t="n">
-        <v>15.8</v>
+        <v>13.2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>14025.53</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>79410.28999999999</v>
+        <v>113549.29</v>
       </c>
       <c r="C154" t="n">
-        <v>15</v>
+        <v>11.3</v>
+      </c>
+      <c r="D154" t="n">
+        <v>9909.779999999999</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>89613.98</v>
+        <v>126307.87</v>
       </c>
       <c r="C155" t="n">
-        <v>13.9</v>
+        <v>10.1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>12758.58</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>103639.51</v>
+        <v>151662</v>
       </c>
       <c r="C156" t="n">
-        <v>13.2</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D156" t="n">
+        <v>25354.13</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>134153.95</v>
+        <v>18865.16</v>
       </c>
       <c r="C157" t="n">
-        <v>18.1</v>
+        <v>10.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>18865.16</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>150223.38</v>
+        <v>32815.27</v>
       </c>
       <c r="C158" t="n">
-        <v>18.9</v>
+        <v>7.8</v>
+      </c>
+      <c r="D158" t="n">
+        <v>13950.11</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>175768</v>
+        <v>45349.77</v>
       </c>
       <c r="C159" t="n">
-        <v>15.8</v>
+        <v>13.8</v>
+      </c>
+      <c r="D159" t="n">
+        <v>12534.5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>18865.16</v>
+        <v>58473.92</v>
       </c>
       <c r="C160" t="n">
-        <v>10.5</v>
+        <v>11.1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>13124.15</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>32815.27</v>
+        <v>77287.94</v>
       </c>
       <c r="C161" t="n">
-        <v>7.8</v>
+        <v>11.8</v>
+      </c>
+      <c r="D161" t="n">
+        <v>18814.02</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>45349.77</v>
+        <v>90020.31</v>
       </c>
       <c r="C162" t="n">
-        <v>13.8</v>
+        <v>13.4</v>
+      </c>
+      <c r="D162" t="n">
+        <v>12732.37</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>58473.92</v>
+        <v>102863.82</v>
       </c>
       <c r="C163" t="n">
-        <v>11.1</v>
+        <v>14.8</v>
+      </c>
+      <c r="D163" t="n">
+        <v>12843.51000000001</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>77287.94</v>
+        <v>120662.53</v>
       </c>
       <c r="C164" t="n">
-        <v>11.8</v>
+        <v>16.4</v>
+      </c>
+      <c r="D164" t="n">
+        <v>17798.70999999999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>90020.31</v>
+        <v>134153.95</v>
       </c>
       <c r="C165" t="n">
-        <v>13.4</v>
+        <v>18.1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>13491.42000000001</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>102863.82</v>
+        <v>150223.38</v>
       </c>
       <c r="C166" t="n">
-        <v>14.8</v>
+        <v>18.9</v>
+      </c>
+      <c r="D166" t="n">
+        <v>16069.42999999999</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>120662.53</v>
+        <v>175768</v>
       </c>
       <c r="C167" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
+      </c>
+      <c r="D167" t="n">
+        <v>25544.62</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>147774.77</v>
+        <v>21170.27</v>
       </c>
       <c r="C168" t="n">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D168" t="n">
+        <v>21170.27</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>165839</v>
+        <v>37958.31</v>
       </c>
       <c r="C169" t="n">
-        <v>10.2</v>
+        <v>15.4</v>
+      </c>
+      <c r="D169" t="n">
+        <v>16788.04</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>21170.27</v>
+        <v>51067.63</v>
       </c>
       <c r="C170" t="n">
-        <v>12</v>
+        <v>12.4</v>
+      </c>
+      <c r="D170" t="n">
+        <v>13109.32</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>37958.31</v>
+        <v>66528.14</v>
       </c>
       <c r="C171" t="n">
-        <v>15.4</v>
+        <v>13.6</v>
+      </c>
+      <c r="D171" t="n">
+        <v>15460.51</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>51067.63</v>
+        <v>89165.00999999999</v>
       </c>
       <c r="C172" t="n">
-        <v>12.4</v>
+        <v>15.1272384056109</v>
+      </c>
+      <c r="D172" t="n">
+        <v>22636.87</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>66528.14</v>
+        <v>101933.28</v>
       </c>
       <c r="C173" t="n">
-        <v>13.6</v>
+        <v>13</v>
+      </c>
+      <c r="D173" t="n">
+        <v>12768.27</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>89165.00999999999</v>
+        <v>116120.06</v>
       </c>
       <c r="C174" t="n">
-        <v>15.1272384056109</v>
+        <v>12.7</v>
+      </c>
+      <c r="D174" t="n">
+        <v>14186.78</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>101933.28</v>
+        <v>135956.23</v>
       </c>
       <c r="C175" t="n">
-        <v>13</v>
+        <v>12.5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>19836.17000000001</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>116120.06</v>
+        <v>147774.77</v>
       </c>
       <c r="C176" t="n">
-        <v>12.7</v>
+        <v>10</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11818.53999999998</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>135956.23</v>
+        <v>165839</v>
       </c>
       <c r="C177" t="n">
-        <v>12.5</v>
+        <v>10.2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>18064.23000000001</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>162994.9</v>
+        <v>24859.68</v>
       </c>
       <c r="C178" t="n">
-        <v>9.800000000000001</v>
+        <v>17.4</v>
+      </c>
+      <c r="D178" t="n">
+        <v>24859.68</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>179560.4</v>
+        <v>45917.16</v>
       </c>
       <c r="C179" t="n">
-        <v>7.8</v>
+        <v>21</v>
+      </c>
+      <c r="D179" t="n">
+        <v>21057.48</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>203330</v>
+        <v>59552.68</v>
       </c>
       <c r="C180" t="n">
-        <v>7.7</v>
+        <v>16.3</v>
+      </c>
+      <c r="D180" t="n">
+        <v>13635.52</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>24859.68</v>
+        <v>76467.42999999999</v>
       </c>
       <c r="C181" t="n">
-        <v>17.4</v>
+        <v>14.6797056290326</v>
+      </c>
+      <c r="D181" t="n">
+        <v>16914.74999999999</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>45917.16</v>
+        <v>103483.34</v>
       </c>
       <c r="C182" t="n">
-        <v>21</v>
+        <v>15.79690496</v>
+      </c>
+      <c r="D182" t="n">
+        <v>27015.91</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>59552.68</v>
+        <v>116979.38</v>
       </c>
       <c r="C183" t="n">
-        <v>16.3</v>
+        <v>14.49877548</v>
+      </c>
+      <c r="D183" t="n">
+        <v>13496.04000000001</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>76467.42999999999</v>
+        <v>131626.66</v>
       </c>
       <c r="C184" t="n">
-        <v>14.6797056290326</v>
+        <v>13.0774372</v>
+      </c>
+      <c r="D184" t="n">
+        <v>14647.28</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>103483.34</v>
+        <v>151873.06</v>
       </c>
       <c r="C185" t="n">
-        <v>15.79690496</v>
+        <v>11.4137070651021</v>
+      </c>
+      <c r="D185" t="n">
+        <v>20246.39999999999</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>116979.38</v>
+        <v>162994.9</v>
       </c>
       <c r="C186" t="n">
-        <v>14.49877548</v>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D186" t="n">
+        <v>11121.84</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>131626.66</v>
+        <v>179560.4</v>
       </c>
       <c r="C187" t="n">
-        <v>13.0774372</v>
+        <v>7.8</v>
+      </c>
+      <c r="D187" t="n">
+        <v>16565.5</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>151873.06</v>
+        <v>203330</v>
       </c>
       <c r="C188" t="n">
-        <v>11.4137070651021</v>
+        <v>7.7</v>
+      </c>
+      <c r="D188" t="n">
+        <v>23769.60000000001</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>175320.29</v>
+        <v>29061.84</v>
       </c>
       <c r="C189" t="n">
-        <v>7.56183875223566</v>
+        <v>16.731843844693</v>
+      </c>
+      <c r="D189" t="n">
+        <v>29061.84</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>191750.87</v>
+        <v>50996.99</v>
       </c>
       <c r="C190" t="n">
-        <v>6.8</v>
+        <v>10.9</v>
+      </c>
+      <c r="D190" t="n">
+        <v>21935.15</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>220906</v>
+        <v>65692.55</v>
       </c>
       <c r="C191" t="n">
-        <v>8.699999999999999</v>
+        <v>10.300683203</v>
+      </c>
+      <c r="D191" t="n">
+        <v>14695.56</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>29061.84</v>
+        <v>82695.22</v>
       </c>
       <c r="C192" t="n">
-        <v>16.731843844693</v>
+        <v>8.1437330288</v>
+      </c>
+      <c r="D192" t="n">
+        <v>17002.67</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>50996.99</v>
+        <v>111592.11</v>
       </c>
       <c r="C193" t="n">
-        <v>10.9</v>
+        <v>7.8354986512</v>
+      </c>
+      <c r="D193" t="n">
+        <v>28896.89</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>65692.55</v>
+        <v>125536.5</v>
       </c>
       <c r="C194" t="n">
-        <v>10.300683203</v>
+        <v>7.3148192869</v>
+      </c>
+      <c r="D194" t="n">
+        <v>13944.39</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>82695.22</v>
+        <v>140673.45</v>
       </c>
       <c r="C195" t="n">
-        <v>8.1437330288</v>
+        <v>6.87279205634103</v>
+      </c>
+      <c r="D195" t="n">
+        <v>15136.95000000001</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>111592.11</v>
+        <v>163289.49</v>
       </c>
       <c r="C196" t="n">
-        <v>7.8354986512</v>
+        <v>7.51704449082234</v>
+      </c>
+      <c r="D196" t="n">
+        <v>22616.03999999998</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>125536.5</v>
+        <v>175320.29</v>
       </c>
       <c r="C197" t="n">
-        <v>7.3148192869</v>
+        <v>7.56183875223566</v>
+      </c>
+      <c r="D197" t="n">
+        <v>12030.80000000002</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>140673.45</v>
+        <v>191750.87</v>
       </c>
       <c r="C198" t="n">
-        <v>6.87279205634103</v>
+        <v>6.8</v>
+      </c>
+      <c r="D198" t="n">
+        <v>16430.57999999999</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>163289.49</v>
+        <v>220906</v>
       </c>
       <c r="C199" t="n">
-        <v>7.51704449082234</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D199" t="n">
+        <v>29155.13</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>190587</v>
+        <v>33314</v>
       </c>
       <c r="C200" t="n">
-        <v>8.699999999999999</v>
+        <v>14.6</v>
+      </c>
+      <c r="D200" t="n">
+        <v>33314</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>206463</v>
+        <v>58629</v>
       </c>
       <c r="C201" t="n">
-        <v>7.7</v>
+        <v>15</v>
+      </c>
+      <c r="D201" t="n">
+        <v>25315</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>238874</v>
+        <v>75667</v>
       </c>
       <c r="C202" t="n">
-        <v>8.1</v>
+        <v>15.2</v>
+      </c>
+      <c r="D202" t="n">
+        <v>17038</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>33314</v>
+        <v>93023</v>
       </c>
       <c r="C203" t="n">
-        <v>14.6</v>
+        <v>12.5</v>
+      </c>
+      <c r="D203" t="n">
+        <v>17356</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>58629</v>
+        <v>123538</v>
       </c>
       <c r="C204" t="n">
-        <v>15</v>
+        <v>10.7</v>
+      </c>
+      <c r="D204" t="n">
+        <v>30515</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>75667</v>
+        <v>137963</v>
       </c>
       <c r="C205" t="n">
-        <v>15.2</v>
+        <v>9.9</v>
+      </c>
+      <c r="D205" t="n">
+        <v>14425</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>93023</v>
+        <v>153069</v>
       </c>
       <c r="C206" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D206" t="n">
+        <v>15106</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>123538</v>
+        <v>178612</v>
       </c>
       <c r="C207" t="n">
-        <v>10.7</v>
+        <v>9.4</v>
+      </c>
+      <c r="D207" t="n">
+        <v>25543</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>137963</v>
+        <v>190587</v>
       </c>
       <c r="C208" t="n">
-        <v>9.9</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D208" t="n">
+        <v>11975</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>153069</v>
+        <v>206463</v>
       </c>
       <c r="C209" t="n">
-        <v>8.800000000000001</v>
+        <v>7.7</v>
+      </c>
+      <c r="D209" t="n">
+        <v>15876</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>178612</v>
+        <v>238874</v>
       </c>
       <c r="C210" t="n">
-        <v>9.4</v>
+        <v>8.1</v>
+      </c>
+      <c r="D210" t="n">
+        <v>32411</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>189439</v>
+        <v>32350</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.6</v>
+        <v>-2.9</v>
+      </c>
+      <c r="D211" t="n">
+        <v>32350</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>207846</v>
+        <v>55284</v>
       </c>
       <c r="C212" t="n">
-        <v>0.7</v>
+        <v>-5.7</v>
+      </c>
+      <c r="D212" t="n">
+        <v>22934</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>245588</v>
+        <v>73595.89</v>
       </c>
       <c r="C213" t="n">
-        <v>2.8</v>
+        <v>-2.7</v>
+      </c>
+      <c r="D213" t="n">
+        <v>18311.89</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>32350</v>
+        <v>90281</v>
       </c>
       <c r="C214" t="n">
         <v>-2.9</v>
       </c>
+      <c r="D214" t="n">
+        <v>16685.11</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>55284</v>
+        <v>116411</v>
       </c>
       <c r="C215" t="n">
-        <v>-5.7</v>
+        <v>-5.8</v>
+      </c>
+      <c r="D215" t="n">
+        <v>26130</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>73595.89</v>
+        <v>133499</v>
       </c>
       <c r="C216" t="n">
-        <v>-2.7</v>
+        <v>-3.2</v>
+      </c>
+      <c r="D216" t="n">
+        <v>17088</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>90281</v>
+        <v>149925</v>
       </c>
       <c r="C217" t="n">
-        <v>-2.9</v>
+        <v>-2.1</v>
+      </c>
+      <c r="D217" t="n">
+        <v>16426</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>116411</v>
+        <v>175185</v>
       </c>
       <c r="C218" t="n">
-        <v>-5.8</v>
+        <v>-1.9</v>
+      </c>
+      <c r="D218" t="n">
+        <v>25260</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>133499</v>
+        <v>189439</v>
       </c>
       <c r="C219" t="n">
-        <v>-3.2</v>
+        <v>-0.6</v>
+      </c>
+      <c r="D219" t="n">
+        <v>14254</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>149925</v>
+        <v>207846</v>
       </c>
       <c r="C220" t="n">
-        <v>-2.1</v>
+        <v>0.7</v>
+      </c>
+      <c r="D220" t="n">
+        <v>18407</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>175185</v>
+        <v>245588</v>
       </c>
       <c r="C221" t="n">
-        <v>-1.9</v>
+        <v>2.8</v>
+      </c>
+      <c r="D221" t="n">
+        <v>37742</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>193961</v>
+        <v>35732.53</v>
       </c>
       <c r="C222" t="n">
-        <v>2.4</v>
+        <v>10.5</v>
+      </c>
+      <c r="D222" t="n">
+        <v>35732.53</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>213924</v>
+        <v>58703</v>
       </c>
       <c r="C223" t="n">
-        <v>2.9</v>
+        <v>6.2</v>
+      </c>
+      <c r="D223" t="n">
+        <v>22970.47</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>35732.53</v>
+        <v>76396</v>
       </c>
       <c r="C224" t="n">
-        <v>10.5</v>
+        <v>3.8</v>
+      </c>
+      <c r="D224" t="n">
+        <v>17693</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>58703</v>
+        <v>93553</v>
       </c>
       <c r="C225" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
+      </c>
+      <c r="D225" t="n">
+        <v>17157</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>76396</v>
+        <v>121676</v>
       </c>
       <c r="C226" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
+      </c>
+      <c r="D226" t="n">
+        <v>28123</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>93553</v>
+        <v>137928</v>
       </c>
       <c r="C227" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
+      </c>
+      <c r="D227" t="n">
+        <v>16252</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>121676</v>
+        <v>155371</v>
       </c>
       <c r="C228" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
+      </c>
+      <c r="D228" t="n">
+        <v>17443</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>137928</v>
+        <v>179293</v>
       </c>
       <c r="C229" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
+      </c>
+      <c r="D229" t="n">
+        <v>23922</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>155371</v>
+        <v>193961</v>
       </c>
       <c r="C230" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
+      </c>
+      <c r="D230" t="n">
+        <v>14668</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>179293</v>
+        <v>213924</v>
       </c>
       <c r="C231" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
+      </c>
+      <c r="D231" t="n">
+        <v>19963</v>
       </c>
     </row>
   </sheetData>
